--- a/solar-operation/temp/listado_metricas.xlsx
+++ b/solar-operation/temp/listado_metricas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\phc\mercados\api-xm\solares-operacion\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\phc\mercados\api-xm\solar-operation\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AB7CD-66E9-429F-9DE6-483DE2931968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA80AB5E-83A8-4CD9-962F-EE5C003054EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1572" yWindow="960" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$190</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1862,7 +1862,7 @@
   <dimension ref="A1:L190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2142,7 +2142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9076,19 +9076,6 @@
   <autoFilter ref="A1:L190" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="FAZNI Precio por Sistema"/>
-        <filter val="Máximo Precio de Oferta Nacional por Sistema"/>
-        <filter val="Precio Bolsa Nacional Ponderado por Sistema"/>
-        <filter val="Precio Bolsa Nacional por Sistema"/>
-        <filter val="Precio Bolsa Promedio Aritmético TX1 por Sistema"/>
-        <filter val="Precio Cargo por Confiabilidad por Recurso"/>
-        <filter val="Precio de Oferta de Despacho por Recurso"/>
-        <filter val="Precio de Oferta Ideal por Recurso"/>
-        <filter val="Precio Escasez Activación por Sistema"/>
-        <filter val="Precio Escasez Ponderado por Sistema"/>
-        <filter val="Precio Escasez por Sistema"/>
-        <filter val="Precio Marginal Escasez por Sistema"/>
-        <filter val="Precio Promedio Contrato por Sistema"/>
         <filter val="Precio Promedio Contratos No Regulados por Sistema"/>
         <filter val="Precio Promedio Contratos Regulados por Sistema"/>
       </filters>
